--- a/documentation/Bewertung.xlsx
+++ b/documentation/Bewertung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assfalgp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Philipp aßfalg\Uni\Programmieren\Python\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5CAE1-035B-4844-8216-334B570BD430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02EF1C1-DDB1-4D9A-8541-F64A3AE3459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Bewertung Programmentwurf - Programmieren in Python</t>
   </si>
@@ -104,13 +104,10 @@
     <t>Philipp Aßfalg</t>
   </si>
   <si>
-    <t>Ben Köger</t>
-  </si>
-  <si>
     <t>Maximilian Marschall</t>
   </si>
   <si>
-    <t>Lucas Boyn</t>
+    <t>Ben  Köger</t>
   </si>
 </sst>
 </file>
@@ -631,19 +628,19 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +650,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -661,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -677,7 +674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -685,21 +682,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -713,87 +708,103 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
@@ -802,7 +813,7 @@
       </c>
       <c r="D20" s="5">
         <f>SUM(D12:D19)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5">
         <f>SUM(E12:E19)</f>
@@ -819,10 +830,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{5c8251e0-caf7-4748-8ff8-439e3f55cda8}" enabled="1" method="Standard" siteId="{975d243a-4e65-46df-b77f-8f73a893ca23}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>